--- a/biology/Virologie/Polydnaviriformidae/Polydnaviriformidae.xlsx
+++ b/biology/Virologie/Polydnaviriformidae/Polydnaviriformidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polydnavirus
 Les Polydnaviriformidae, appelés Polydnaviridae (PDV) ou Polydnavirus de 1984 à 2021, sont une famille de virus d´insectes qui rassemble deux genres : Ichnoviriform (IV) et Bracoviriform (BV). Le génome viral est segmenté et composé de plusieurs molécules d´ADN circulaire double brin empaquetées dans une capside protéique et d´une enveloppe mono- (IV) ou bien bicouche (BV). Les polydnavirus forment une famille car ils partagent de nombreuses caractéristiques (génome segmenté) et sont associés avec des guêpes endoparasitoïdes. Cependant, les Bracovirus qui sont associés aux guêpes endoparasitoïdes de la famille des Braconidae diffèrent significativement par rapport aux ichnovirus associés aux guêpes endoparasitoïdes de la famille des Ichneumonidae. La monophylie de la famille des polydnavirus est par conséquent un sujet de débat.
@@ -512,7 +524,9 @@
           <t>Action des polyDNAvirus sur l'immunité de l'hôte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Face à un pathogène, les insectes possèdent plusieurs voies de réponse, qui sont toutes potentiellement sollicitées chez l'hôte du couple guêpe-polyDNAvirus. Face à l'introduction d'un gros corps étranger tel qu'un œuf de parasitoïde, la réaction immunitaire classiquement déclenchée par l'insecte est une réaction d'encapsulation du corps par les hémocytes. Cette réaction peut être suivie d'une mélanisation qui permet d'étouffer le corps étranger. Il peut également y avoir phagocytose des particules virales, puis nodulation et mélanisation des macrophages gavés de virus. Enfin, une réponse immunitaire humorale avec la production de peptides antiviraux peut avoir lieu.(1)
 Les polyDNAvirus protègent la larve d'hyménoptère de ces phénomènes en agissant à différents niveaux :
@@ -546,7 +560,9 @@
           <t>Particules pseudo-virales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une autre stratégie utilisée par les hyménoptères parasitoïdes pour protéger leur progéniture est la production de particules pseudo-virales.
 Les particules pseudo-virales (ou VLP (acronyme de virus like particles) sont des structures qui ressemblent à des virus mais qui ne contiennent pas d'acide nucléique. 
@@ -581,7 +597,9 @@
           <t>Micro-ARN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les micro-ARN sont des ARN courts produits par les cellules et qui permet la destruction des ARNm viraux par appariement complémentaire du microARN sur l'ARN viral puis clivage par une enzyme qui reconnaît les ARN double brin. Ce mécanisme est appelé « silençage génique post-transcriptionnel » ou PTGS (acronyme de Post transcriptional gene silencing. (8)
 Il est intéressant de considérer ce phénomènes dans le contexte des polyDNAvirus car on peut formuler de nombreuses hypothèses :
